--- a/src/main/resources/data/test/example.xlsx
+++ b/src/main/resources/data/test/example.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11440"/>
+    <workbookView windowWidth="28800" windowHeight="11440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_exampe_1" sheetId="1" r:id="rId1"/>
+    <sheet name="test_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -72,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -100,12 +101,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -115,6 +131,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,6 +146,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,40 +175,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +206,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -200,28 +223,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,11 +236,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -276,19 +277,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,25 +331,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,115 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,17 +468,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +497,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,169 +565,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1236,4 +1237,120 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="10.85" customWidth="1"/>
+    <col min="3" max="3" width="14.925" customWidth="1"/>
+    <col min="6" max="6" width="12.1666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:5">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:5">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:5">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/data/test/example.xlsx
+++ b/src/main/resources/data/test/example.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="28800" windowHeight="11440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test_exampe_1" sheetId="1" r:id="rId1"/>
-    <sheet name="test_2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestExampeDo1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestExampeDo2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -73,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -100,20 +100,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -124,6 +110,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -131,14 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,17 +138,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,22 +155,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -200,29 +162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,9 +176,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,175 +271,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +471,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -479,24 +488,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,30 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,161 +551,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/src/main/resources/data/test/example.xlsx
+++ b/src/main/resources/data/test/example.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11440" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11380"/>
   </bookViews>
   <sheets>
-    <sheet name="TestExampeDo1" sheetId="1" r:id="rId1"/>
-    <sheet name="TestExampeDo2" sheetId="2" r:id="rId2"/>
+    <sheet name="XmlExampeDo1" sheetId="1" r:id="rId1"/>
+    <sheet name="XmlExampeDo2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -73,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -100,6 +100,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -110,36 +124,106 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,92 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,13 +271,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,13 +385,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,13 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,78 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,42 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,15 +471,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -488,11 +479,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +527,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,181 +565,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1244,7 +1244,7 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
